--- a/Risks.xlsx
+++ b/Risks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Identified</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Risk factor</t>
   </si>
   <si>
-    <t>Probability of occurence</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
     <t>Mitigation strategy</t>
   </si>
   <si>
@@ -47,42 +41,18 @@
     <t>Continually changing requirements</t>
   </si>
   <si>
-    <t>Try not to change anything :p</t>
-  </si>
-  <si>
     <t>Roman</t>
   </si>
   <si>
     <t>Unclear system requirements</t>
   </si>
   <si>
-    <t>Use very specific specifications</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Project involves the use of new technology</t>
-  </si>
-  <si>
     <t>Philipp</t>
   </si>
   <si>
-    <t>Sebastian knows the technology Vaadin, so we need to keep him alive</t>
-  </si>
-  <si>
-    <t>Project involves the use of technology that has not been used prior project</t>
-  </si>
-  <si>
-    <t>As long as Sebastian is in, no problem, so…</t>
-  </si>
-  <si>
     <t>Project progress not monitored closely enough</t>
   </si>
   <si>
-    <t>We roughly know the project, sooooo… we just don't care</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -95,51 +65,21 @@
     <t>Team members expelled from university</t>
   </si>
   <si>
-    <t>Support of team members in repetition tests</t>
-  </si>
-  <si>
     <t>Untesteted functions</t>
   </si>
   <si>
-    <t>Automated tests</t>
-  </si>
-  <si>
-    <t>Roman, Philipp, Sebastian</t>
-  </si>
-  <si>
-    <t>Personal shortfalls</t>
-  </si>
-  <si>
-    <t>Don't drink'n'drive</t>
-  </si>
-  <si>
-    <t>Sebastian, Roman</t>
-  </si>
-  <si>
     <t>Unrealistic time estimates</t>
   </si>
   <si>
-    <t>Plan better</t>
-  </si>
-  <si>
-    <t>Philipp, Sebastian</t>
-  </si>
-  <si>
     <t>Failure to manage end-user expectations</t>
   </si>
   <si>
-    <t>Carefule UI design, asking coworkers about a possible design</t>
-  </si>
-  <si>
     <t>Artificial deadlines</t>
   </si>
   <si>
     <t>Better planning</t>
   </si>
   <si>
-    <t>Sebastian, Philipp</t>
-  </si>
-  <si>
     <t>Local loss of projecfiles</t>
   </si>
   <si>
@@ -155,10 +95,55 @@
     <t>Local backups</t>
   </si>
   <si>
-    <t>Technical problems</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>The amount of work was reduced by deciding on rather simple use cases</t>
+  </si>
+  <si>
+    <t>Sickness occured. Worked harder in other periods of time.</t>
+  </si>
+  <si>
+    <t>Each tem member knows what to do, monitoring is mainly optional</t>
+  </si>
+  <si>
+    <t>Probability of occurence (ranges from 0 to 1)</t>
+  </si>
+  <si>
+    <t>Damage (ranges from 0 to 10)</t>
+  </si>
+  <si>
+    <t>Carefule UI design, asking coworkers about a possible design. Constant redesign, using declarative designs for easy html like changes</t>
+  </si>
+  <si>
+    <t>Automated tests, integration tests using headless testing</t>
+  </si>
+  <si>
+    <t>Read the docs, use google to find solutions, find alternatives and use old and know technology where possible</t>
+  </si>
+  <si>
+    <t>Project involves the use of new technology, such as Vaadin or headless testing</t>
+  </si>
+  <si>
+    <t>Roman, Philipp</t>
+  </si>
+  <si>
+    <t>Try to keep changes low, in case of changes balance the new workload in the team</t>
+  </si>
+  <si>
+    <t>Personal shortfalls, sickness</t>
+  </si>
+  <si>
+    <t>Use very specific specifications, use the RUP templates to make everything as clear as possible</t>
+  </si>
+  <si>
+    <t>Use function points as estimation</t>
+  </si>
+  <si>
+    <t>Philiüü</t>
+  </si>
+  <si>
+    <t>Technical problems, like  a maven break down or corruption of git repo</t>
+  </si>
+  <si>
+    <t>Work accurate and try to avoid these problemes. If they occur find a solution on google, use backups to restore a working point or redo the work if changes were small</t>
   </si>
 </sst>
 </file>
@@ -222,16 +207,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F16" totalsRowShown="0">
   <autoFilter ref="A1:F16"/>
   <sortState ref="A2:F16">
-    <sortCondition ref="F1:F16"/>
+    <sortCondition descending="1" ref="F1:F16"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Identified"/>
-    <tableColumn id="2" name="Probability of occurence"/>
-    <tableColumn id="3" name="Damage"/>
+    <tableColumn id="2" name="Probability of occurence (ranges from 0 to 1)"/>
+    <tableColumn id="3" name="Damage (ranges from 0 to 10)"/>
     <tableColumn id="4" name="Mitigation strategy"/>
     <tableColumn id="5" name="Person in charge"/>
     <tableColumn id="6" name="Risk factor" dataDxfId="0">
-      <calculatedColumnFormula>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -504,7 +489,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -538,101 +523,107 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>0.09</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>0.1</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
       <c r="F4" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>0.25</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>0.30000000000000004</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>0.60000000000000009</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -640,210 +631,186 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>0.60000000000000009</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
         <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
+      <c r="F9" s="1">
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>1</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>1.2</v>
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>2.4</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>2.4000000000000004</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>3</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>3</v>
+        <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>0.5</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1">
-        <f>Tabelle1[[#This Row],[Probability of occurence]]*Tabelle1[[#This Row],[Damage]]</f>
-        <v>4</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Risks.xlsx
+++ b/Risks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Identified</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Use function points as estimation</t>
-  </si>
-  <si>
-    <t>Philiüü</t>
   </si>
   <si>
     <t>Technical problems, like  a maven break down or corruption of git repo</t>
@@ -489,7 +486,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +721,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
@@ -754,7 +751,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>0.05</v>
@@ -763,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1">
         <f>Tabelle1[[#This Row],[Probability of occurence (ranges from 0 to 1)]]*Tabelle1[[#This Row],[Damage (ranges from 0 to 10)]]</f>
